--- a/AAII_Financials/Quarterly/IMVT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMVT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="92">
   <si>
     <t>IMVT</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,39 +665,39 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -710,8 +710,11 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -739,8 +742,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -768,8 +774,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,8 +806,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,13 +822,14 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>5000</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>3</v>
@@ -839,8 +852,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +884,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,8 +916,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +948,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,22 +961,23 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+      <c r="G17" s="3">
+        <v>0</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -965,8 +991,11 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -974,13 +1003,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+      <c r="G18" s="3">
+        <v>0</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -994,8 +1023,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,8 +1039,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1016,13 +1049,13 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>700</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1036,8 +1069,11 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1065,51 +1101,57 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+      <c r="G23" s="3">
+        <v>0</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1123,8 +1165,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1134,8 +1179,8 @@
       <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+      <c r="F24" s="3">
+        <v>100</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1152,8 +1197,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,22 +1229,25 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E26" s="3">
         <v>100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+      <c r="G26" s="3">
+        <v>0</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1210,22 +1261,25 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+      <c r="G27" s="3">
+        <v>0</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1239,8 +1293,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1325,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1357,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1389,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,8 +1421,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1364,13 +1433,13 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1384,22 +1453,25 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E33" s="3">
         <v>100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+      <c r="G33" s="3">
+        <v>0</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1413,8 +1485,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,22 +1517,25 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+      <c r="G35" s="3">
+        <v>0</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1471,28 +1549,31 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1505,8 +1586,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1602,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,23 +1616,24 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>123500</v>
+      </c>
+      <c r="E41" s="3">
         <v>1600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1560,8 +1646,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,37 +1678,43 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1647,13 +1742,16 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
@@ -1661,8 +1759,8 @@
       <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+      <c r="G45" s="3">
+        <v>200</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1676,23 +1774,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>126600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1705,20 +1806,23 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3">
         <v>116000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>115300</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1734,37 +1838,43 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="E48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1792,8 +1902,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +1934,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,8 +1966,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1879,8 +1998,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,23 +2030,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>126600</v>
+      </c>
+      <c r="E54" s="3">
         <v>117800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>117400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>300</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +2062,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2078,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,52 +2092,56 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+        <v>2800</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,22 +2154,25 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+      <c r="G59" s="3">
+        <v>0</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2050,23 +2186,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E60" s="3">
         <v>300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>300</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2079,8 +2218,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2108,19 +2250,22 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>4000</v>
+      <c r="D62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E62" s="3">
         <v>4000</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+      <c r="F62" s="3">
+        <v>4000</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2137,8 +2282,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2314,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2346,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,23 +2378,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E66" s="3">
         <v>4400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>300</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2253,8 +2410,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2426,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2456,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2488,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2353,8 +2520,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,22 +2552,25 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-70700</v>
+      </c>
+      <c r="E72" s="3">
         <v>300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>200</v>
       </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+      <c r="G72" s="3">
+        <v>0</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2411,8 +2584,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2616,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2648,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,22 +2680,25 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>111900</v>
+      </c>
+      <c r="E76" s="3">
         <v>113400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>113300</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+      <c r="G76" s="3">
+        <v>0</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2527,8 +2712,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,28 +2744,31 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2590,22 +2781,25 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E81" s="3">
         <v>100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+      <c r="G81" s="3">
+        <v>0</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2619,8 +2813,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,8 +2829,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2661,8 +2859,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +2891,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +2923,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +2955,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +2987,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,22 +3019,25 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+      <c r="G89" s="3">
+        <v>0</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2835,8 +3051,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,8 +3067,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2877,8 +3097,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3129,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,37 +3161,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>115000</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3209,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3239,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3271,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3303,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,23 +3335,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>30100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>117000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3122,8 +3367,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3151,23 +3399,26 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,6 +3429,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMVT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMVT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="92">
   <si>
     <t>IMVT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,45 +665,47 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -713,8 +715,14 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -745,8 +753,14 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -777,8 +791,14 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,8 +829,14 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -823,25 +849,27 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>14200</v>
+      </c>
+      <c r="F12" s="3">
         <v>5000</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
+      <c r="H12" s="3">
+        <v>28800</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -855,8 +883,14 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -887,8 +921,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -919,8 +959,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -951,8 +997,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -962,28 +1014,30 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>20500</v>
+      </c>
+      <c r="F17" s="3">
         <v>11000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+      <c r="H17" s="3">
+        <v>34600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -994,8 +1048,14 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1003,19 +1063,19 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+      <c r="H18" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1026,8 +1086,14 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1040,8 +1106,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1049,19 +1117,19 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1072,16 +1140,22 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="E21" s="3">
+        <v>-20600</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1104,25 +1178,31 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+      <c r="H22" s="3">
+        <v>200</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1130,34 +1210,40 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-11200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
-        <v>200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+      <c r="H23" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1168,25 +1254,31 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>100</v>
+      </c>
+      <c r="H24" s="3">
+        <v>100</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1200,8 +1292,14 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1232,28 +1330,34 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-11300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
-        <v>200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+      <c r="H26" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1264,28 +1368,34 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-11300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
-        <v>200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+      <c r="H27" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1296,8 +1406,14 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1328,8 +1444,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1360,8 +1482,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1392,8 +1520,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1424,8 +1558,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1433,19 +1573,19 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1456,28 +1596,34 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-11300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
-        <v>200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+      <c r="H33" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1488,8 +1634,14 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1520,28 +1672,34 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-11300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
-        <v>200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+      <c r="H35" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1552,34 +1710,40 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1589,8 +1753,14 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1603,8 +1773,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1617,29 +1789,31 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>280300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100600</v>
+      </c>
+      <c r="F41" s="3">
         <v>123500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1649,8 +1823,14 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1681,19 +1861,25 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>3000</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+      <c r="F43" s="3">
+        <v>3000</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1707,14 +1893,20 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1745,28 +1937,34 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>5800</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>5500</v>
       </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+      <c r="H45" s="3">
+        <v>200</v>
+      </c>
+      <c r="I45" s="3">
+        <v>200</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1777,29 +1975,35 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>286100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>109100</v>
+      </c>
+      <c r="F46" s="3">
         <v>126600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1809,26 +2013,32 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
         <v>116000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>115300</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1841,19 +2051,25 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+        <v>4200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>100</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1867,14 +2083,20 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1905,8 +2127,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1937,8 +2165,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1969,8 +2203,14 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1978,22 +2218,22 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2001,8 +2241,14 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2033,29 +2279,35 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>290300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>109400</v>
+      </c>
+      <c r="F54" s="3">
         <v>126600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>117800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>117400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2065,8 +2317,14 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2079,8 +2337,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2093,20 +2353,22 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F57" s="3">
         <v>2800</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2119,35 +2381,41 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2157,28 +2425,34 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F59" s="3">
         <v>11900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2189,28 +2463,34 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>15300</v>
+      </c>
+      <c r="F60" s="3">
         <v>14800</v>
-      </c>
-      <c r="E60" s="3">
-        <v>300</v>
-      </c>
-      <c r="F60" s="3">
-        <v>100</v>
       </c>
       <c r="G60" s="3">
         <v>300</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+      <c r="H60" s="3">
+        <v>100</v>
+      </c>
+      <c r="I60" s="3">
+        <v>300</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2221,8 +2501,14 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2253,26 +2539,32 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="3">
+      <c r="D62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3">
         <v>4000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>4000</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2285,8 +2577,14 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2317,8 +2615,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2349,8 +2653,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2381,29 +2691,35 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>15300</v>
+      </c>
+      <c r="F66" s="3">
         <v>14800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>300</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2413,8 +2729,14 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2427,8 +2749,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2459,8 +2783,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2491,8 +2821,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2523,8 +2859,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2555,28 +2897,34 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-117900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-91200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-70700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>200</v>
       </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+      <c r="I72" s="3">
+        <v>0</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2587,8 +2935,14 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2619,8 +2973,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2651,8 +3011,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2683,28 +3049,34 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>267800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>94100</v>
+      </c>
+      <c r="F76" s="3">
         <v>111900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>113400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>113300</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+      <c r="I76" s="3">
+        <v>0</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2715,8 +3087,14 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2747,34 +3125,40 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2784,28 +3168,34 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-11300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
-        <v>200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+      <c r="H81" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2816,8 +3206,14 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2830,8 +3226,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2841,20 +3239,20 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -2862,8 +3260,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2894,8 +3298,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2926,8 +3336,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2958,8 +3374,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2990,8 +3412,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3022,28 +3450,34 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-30100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>0</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3054,8 +3488,14 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3068,8 +3508,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3079,20 +3521,20 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3100,8 +3542,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3132,8 +3580,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3164,25 +3618,31 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>115000</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-115000</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3190,14 +3650,20 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3210,8 +3676,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3242,8 +3710,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3274,8 +3748,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3306,8 +3786,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3338,29 +3824,35 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>193600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>30100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>117000</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>116800</v>
+      </c>
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3370,8 +3862,14 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3402,29 +3900,35 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>179700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="F102" s="3">
         <v>115000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3432,6 +3936,12 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMVT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMVT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
   <si>
     <t>IMVT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,50 +665,51 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -721,8 +722,11 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -759,8 +763,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -797,8 +804,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,8 +845,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,29 +864,30 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E12" s="3">
         <v>16900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>14200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5000</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="H12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="3">
         <v>28800</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -889,8 +903,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,8 +944,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -965,8 +985,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1003,8 +1026,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1016,31 +1042,32 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E17" s="3">
         <v>26600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>20500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>34600</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="J17" s="3">
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1054,8 +1081,11 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1063,22 +1093,22 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-20500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-11000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-34600</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="J18" s="3">
+        <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1092,8 +1122,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,8 +1141,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1120,19 +1154,19 @@
         <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1146,8 +1180,11 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1155,11 +1192,11 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-20600</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,29 +1221,32 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1216,37 +1256,40 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-26700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-20600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-34500</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="J23" s="3">
+        <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1260,8 +1303,11 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1269,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
@@ -1280,8 +1326,8 @@
       <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>100</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1298,8 +1344,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1336,31 +1385,34 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-26700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-20600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-11300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-34500</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="J26" s="3">
+        <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1374,31 +1426,34 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-26700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-20600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-11300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-34500</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="J27" s="3">
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1412,8 +1467,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1450,8 +1508,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1488,8 +1549,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1526,8 +1590,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1564,8 +1631,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1576,19 +1646,19 @@
         <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1602,31 +1672,34 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-26700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-20600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-34500</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="J33" s="3">
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1640,8 +1713,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1678,31 +1754,34 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-26700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-20600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-34500</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="J35" s="3">
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1716,37 +1795,40 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1759,8 +1841,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1775,8 +1860,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1791,32 +1877,33 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>444400</v>
+      </c>
+      <c r="E41" s="3">
         <v>280300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>123500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1829,8 +1916,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1867,8 +1957,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1876,13 +1969,13 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>3000</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+      <c r="G43" s="3">
+        <v>3000</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1899,14 +1992,17 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1943,22 +2039,25 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E45" s="3">
         <v>5800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5500</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
@@ -1966,8 +2065,8 @@
       <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>200</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1981,32 +2080,35 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>450300</v>
+      </c>
+      <c r="E46" s="3">
         <v>286100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>109100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>126600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2121,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2033,15 +2138,15 @@
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3">
         <v>116000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>115300</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2057,22 +2162,25 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E48" s="3">
         <v>4200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>100</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+      <c r="G48" s="3">
+        <v>0</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -2089,14 +2197,17 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2133,8 +2244,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2171,8 +2285,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2209,8 +2326,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2218,13 +2338,13 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2235,8 +2355,8 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2247,8 +2367,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2285,32 +2408,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>453900</v>
+      </c>
+      <c r="E54" s="3">
         <v>290300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>109400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>126600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>117800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>117400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2449,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2339,8 +2468,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2355,23 +2485,24 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E57" s="3">
         <v>8000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2800</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2387,14 +2518,17 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2407,18 +2541,18 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2431,31 +2565,34 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E59" s="3">
         <v>11500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2469,32 +2606,35 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E60" s="3">
         <v>19500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2507,8 +2647,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2545,28 +2688,31 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E62" s="3">
         <v>3000</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G62" s="3">
-        <v>4000</v>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H62" s="3">
         <v>4000</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="I62" s="3">
+        <v>4000</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2583,8 +2729,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2621,8 +2770,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2659,8 +2811,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2697,32 +2852,35 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E66" s="3">
         <v>22500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>300</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,8 +2893,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2751,8 +2912,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2789,8 +2951,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2827,8 +2992,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2865,8 +3033,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2903,31 +3074,34 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-138700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-117900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-91200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-70700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>200</v>
       </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+      <c r="J72" s="3">
+        <v>0</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2941,8 +3115,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2979,8 +3156,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3017,8 +3197,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3055,31 +3238,34 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>438400</v>
+      </c>
+      <c r="E76" s="3">
         <v>267800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>94100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>111900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>113400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>113300</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+      <c r="J76" s="3">
+        <v>0</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3093,8 +3279,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3131,37 +3320,40 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3174,31 +3366,34 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-26700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-20600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-34500</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="J81" s="3">
+        <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3212,8 +3407,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3228,8 +3426,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3239,8 +3438,8 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -3254,8 +3453,8 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3266,8 +3465,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3304,8 +3506,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3342,8 +3547,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3380,8 +3588,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3418,8 +3629,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3456,31 +3670,34 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-13800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-23100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-30100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3494,8 +3711,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3510,8 +3730,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3521,8 +3742,8 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3536,8 +3757,8 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3548,8 +3769,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3586,8 +3810,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3624,8 +3851,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3636,17 +3866,17 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>115000</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-115000</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3656,14 +3886,17 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3678,8 +3911,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3716,8 +3950,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3754,8 +3991,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3792,8 +4032,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3830,32 +4073,35 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>188400</v>
+      </c>
+      <c r="E100" s="3">
         <v>193600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>30100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>116800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,8 +4114,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3906,32 +4155,35 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>164100</v>
+      </c>
+      <c r="E102" s="3">
         <v>179700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-23000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>115000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3942,6 +4194,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMVT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMVT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="92">
   <si>
     <t>IMVT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,54 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,8 +725,11 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -766,8 +769,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -807,8 +813,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,8 +857,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,32 +877,33 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E12" s="3">
         <v>12000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>16900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>14200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5000</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="I12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="3">
         <v>28800</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -906,8 +919,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,8 +963,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -988,8 +1007,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1029,8 +1051,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,34 +1068,35 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E17" s="3">
         <v>21000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>26600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>20500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>34600</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
+      <c r="K17" s="3">
+        <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
@@ -1084,8 +1110,11 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1093,25 +1122,25 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-26600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-20500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-11000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-34600</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
+      <c r="K18" s="3">
+        <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
@@ -1125,8 +1154,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,8 +1174,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1151,25 +1184,25 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="F20" s="3">
         <v>-100</v>
       </c>
       <c r="G20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1183,8 +1216,11 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1192,14 +1228,14 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-26700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-20600</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,32 +1260,35 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1259,40 +1298,43 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-20700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-26700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-20600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-11200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-34500</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
+      <c r="K23" s="3">
+        <v>0</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
@@ -1306,22 +1348,25 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
@@ -1329,8 +1374,8 @@
       <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>100</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1347,8 +1392,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,34 +1436,37 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-20800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-26700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-20600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-34500</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
+      <c r="K26" s="3">
+        <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
@@ -1429,34 +1480,37 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-20800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-26700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-20600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-34500</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
+      <c r="K27" s="3">
+        <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
@@ -1470,8 +1524,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1568,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1612,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1656,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,8 +1700,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1643,25 +1712,25 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="F32" s="3">
         <v>100</v>
       </c>
       <c r="G32" s="3">
+        <v>100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1675,34 +1744,37 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-20800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-26700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-20600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-34500</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
+      <c r="K33" s="3">
+        <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
@@ -1716,8 +1788,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,34 +1832,37 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-20800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-26700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-20600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-34500</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
+      <c r="K35" s="3">
+        <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
@@ -1798,40 +1876,43 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1844,8 +1925,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +1945,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,35 +1963,36 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>422000</v>
+      </c>
+      <c r="E41" s="3">
         <v>444400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>280300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>123500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1919,8 +2005,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1960,25 +2049,28 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>3000</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3">
+        <v>3000</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1995,14 +2087,17 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2042,25 +2137,28 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E45" s="3">
         <v>5900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5500</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
@@ -2068,8 +2166,8 @@
       <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
+      <c r="K45" s="3">
+        <v>200</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
@@ -2083,35 +2181,38 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>429400</v>
+      </c>
+      <c r="E46" s="3">
         <v>450300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>286100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>109100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>126600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2225,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2141,15 +2245,15 @@
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3">
         <v>116000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>115300</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2165,8 +2269,11 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2174,16 +2281,16 @@
         <v>3600</v>
       </c>
       <c r="E48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F48" s="3">
         <v>4200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>100</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="H48" s="3">
+        <v>0</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2200,14 +2307,17 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2247,8 +2357,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2401,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,8 +2445,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2341,13 +2460,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2358,8 +2477,8 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2370,8 +2489,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,35 +2533,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>433000</v>
+      </c>
+      <c r="E54" s="3">
         <v>453900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>290300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>109400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>126600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>117800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>117400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>300</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,8 +2577,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2597,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,26 +2615,27 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E57" s="3">
         <v>5800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2800</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2521,14 +2651,17 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2544,18 +2677,18 @@
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2568,34 +2701,37 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E59" s="3">
         <v>7000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
@@ -2609,35 +2745,38 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E60" s="3">
         <v>12800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>19500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>14800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,8 +2789,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2691,31 +2833,34 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E62" s="3">
         <v>2700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3000</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="3">
-        <v>4000</v>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I62" s="3">
         <v>4000</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>4000</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2732,8 +2877,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +2921,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +2965,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,35 +3009,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E66" s="3">
         <v>15500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,8 +3053,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3073,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3115,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3159,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3036,8 +3203,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,34 +3247,37 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-170500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-138700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-117900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-91200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-70700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>200</v>
       </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
+      <c r="K72" s="3">
+        <v>0</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
@@ -3118,8 +3291,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3335,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3379,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,34 +3423,37 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>414200</v>
+      </c>
+      <c r="E76" s="3">
         <v>438400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>267800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>94100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>111900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>113400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>113300</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
+      <c r="K76" s="3">
+        <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
@@ -3282,8 +3467,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,40 +3511,43 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3369,34 +3560,37 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-20800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-26700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-20600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-34500</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
+      <c r="K81" s="3">
+        <v>0</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
@@ -3410,8 +3604,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,8 +3624,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3441,8 +3639,8 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3456,8 +3654,8 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3468,8 +3666,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3710,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3754,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +3798,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +3842,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,34 +3886,37 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-24200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-13800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-23100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-30100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
@@ -3714,8 +3930,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,8 +3950,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3745,8 +3965,8 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3760,8 +3980,8 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3772,8 +3992,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4036,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,8 +4080,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3869,17 +4098,17 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>115000</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-115000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3889,14 +4118,17 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4144,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4186,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4230,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4274,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,35 +4318,38 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>188400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>193600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>30100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>116800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4117,8 +4362,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4158,35 +4406,38 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="E102" s="3">
         <v>164100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>179700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-23000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>115000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4197,6 +4448,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMVT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMVT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
   <si>
     <t>IMVT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,60 +665,62 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -728,8 +730,14 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -772,8 +780,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -816,8 +830,14 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -860,8 +880,14 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,38 +904,40 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E12" s="3">
+        <v>18600</v>
+      </c>
+      <c r="F12" s="3">
         <v>21100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>12000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>16900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>14200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>5000</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3">
         <v>28800</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -922,8 +950,14 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -966,8 +1000,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1010,8 +1050,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1054,8 +1100,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,40 +1121,42 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>28900</v>
+      </c>
+      <c r="F17" s="3">
         <v>31600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>21000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>26600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>20500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>11000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>34600</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
+      <c r="M17" s="3">
+        <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
@@ -1113,8 +1167,14 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1122,31 +1182,31 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-21000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-26600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-20500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-11000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-34600</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
+      <c r="M18" s="3">
+        <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
@@ -1157,8 +1217,14 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1175,8 +1241,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1184,31 +1252,31 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1219,8 +1287,14 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1228,20 +1302,20 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-32100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-20700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-26700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-20600</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,84 +1337,96 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-32100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-20700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-26700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-20600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-11200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-34500</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
+      <c r="M23" s="3">
+        <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
@@ -1351,37 +1437,43 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>100</v>
+      </c>
+      <c r="L24" s="3">
+        <v>100</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
@@ -1395,8 +1487,14 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1439,40 +1537,46 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-31800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-20800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-26700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-20600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-11300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-34500</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
+      <c r="M26" s="3">
+        <v>0</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
@@ -1483,40 +1587,46 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-31800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-20800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-26700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-20600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-11300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-34500</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
+      <c r="M27" s="3">
+        <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
@@ -1527,8 +1637,14 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1571,8 +1687,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1615,8 +1737,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1659,8 +1787,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1703,8 +1837,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1712,31 +1852,31 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>500</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1747,40 +1887,46 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-31800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-20800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-26700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-20600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-11300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-34500</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
+      <c r="M33" s="3">
+        <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
@@ -1791,8 +1937,14 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1835,40 +1987,46 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-31800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-20800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-26700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-20600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-11300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-34500</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
+      <c r="M35" s="3">
+        <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
@@ -1879,46 +2037,52 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1928,8 +2092,14 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1946,8 +2116,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1964,41 +2136,43 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>379000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>400100</v>
+      </c>
+      <c r="F41" s="3">
         <v>422000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>444400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>280300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>100600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>123500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2008,8 +2182,14 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2052,32 +2232,38 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>3000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>3000</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2090,14 +2276,20 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2140,40 +2332,46 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F45" s="3">
         <v>7000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>5900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>5800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>5500</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>200</v>
-      </c>
       <c r="J45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
+      <c r="L45" s="3">
+        <v>200</v>
+      </c>
+      <c r="M45" s="3">
+        <v>200</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
@@ -2184,41 +2382,47 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>384800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>409000</v>
+      </c>
+      <c r="F46" s="3">
         <v>429400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>450300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>286100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>109100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>126600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2228,8 +2432,14 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2248,18 +2458,18 @@
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
         <v>116000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>115300</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2272,31 +2482,37 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F48" s="3">
         <v>3600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>3600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>4200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2310,14 +2526,20 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2360,8 +2582,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2404,8 +2632,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2448,13 +2682,19 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -2463,16 +2703,16 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2480,11 +2720,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2492,8 +2732,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2536,41 +2782,47 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>388000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>412500</v>
+      </c>
+      <c r="F54" s="3">
         <v>433000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>453900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>290300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>109400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>126600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>117800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>117400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2580,8 +2832,14 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2598,8 +2856,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2616,32 +2876,34 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F57" s="3">
         <v>2100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>5800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>8000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2800</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2654,31 +2916,37 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -2687,14 +2955,14 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,40 +2972,46 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>16300</v>
+      </c>
+      <c r="F59" s="3">
         <v>14400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>7000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>11500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>14100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>11900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
@@ -2748,40 +3022,46 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>18800</v>
+      </c>
+      <c r="F60" s="3">
         <v>16500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>12800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>19500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>15300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>14800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>300</v>
-      </c>
-      <c r="J60" s="3">
-        <v>100</v>
       </c>
       <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
+      <c r="L60" s="3">
+        <v>100</v>
+      </c>
+      <c r="M60" s="3">
+        <v>300</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
@@ -2792,8 +3072,14 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2836,38 +3122,44 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F62" s="3">
         <v>2400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>3000</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K62" s="3">
         <v>4000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>4000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2880,8 +3172,14 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2924,8 +3222,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2968,8 +3272,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3012,41 +3322,47 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>21000</v>
+      </c>
+      <c r="F66" s="3">
         <v>18900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>15500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>22500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>15300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>14800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>300</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3056,8 +3372,14 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3074,8 +3396,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3118,8 +3442,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3162,8 +3492,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3206,8 +3542,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3250,40 +3592,46 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-229100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-198700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-170500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-138700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-117900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-91200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-70700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>200</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
+      <c r="M72" s="3">
+        <v>0</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
@@ -3294,8 +3642,14 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3338,8 +3692,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3382,8 +3742,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3426,40 +3792,46 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>365500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>391500</v>
+      </c>
+      <c r="F76" s="3">
         <v>414200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>438400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>267800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>94100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>111900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>113400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>113300</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
+      <c r="M76" s="3">
+        <v>0</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
@@ -3470,8 +3842,14 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3514,46 +3892,52 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3563,40 +3947,46 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-31800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-20800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-26700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-20600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-11300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-34500</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
+      <c r="M81" s="3">
+        <v>0</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
@@ -3607,8 +3997,14 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3625,8 +4021,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3642,11 +4040,11 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3657,11 +4055,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -3669,8 +4067,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3713,8 +4117,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3757,8 +4167,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3801,8 +4217,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3845,8 +4267,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3889,40 +4317,46 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-22800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-24200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-13800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-23100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-30100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
+      <c r="M89" s="3">
+        <v>0</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
@@ -3933,8 +4367,14 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3951,8 +4391,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3960,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -3968,11 +4410,11 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3983,11 +4425,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -3995,8 +4437,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4039,8 +4487,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4083,8 +4537,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4092,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -4101,34 +4561,40 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>115000</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-115000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4145,8 +4611,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4189,8 +4657,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4233,8 +4707,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4277,8 +4757,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4321,41 +4807,47 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>800</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>188400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>193600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>30100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>116800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4365,8 +4857,14 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4409,41 +4907,47 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-22400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>164100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>179700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-23000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>115000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4451,6 +4955,12 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMVT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMVT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="92">
   <si>
     <t>IMVT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,66 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -736,8 +737,11 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -786,8 +790,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -836,8 +843,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -886,8 +896,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,41 +919,42 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E12" s="3">
         <v>18700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>18600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>21100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>12000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>16900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>14200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5000</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3">
         <v>28800</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -956,8 +970,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,8 +1023,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1056,8 +1076,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1106,8 +1129,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1123,43 +1149,44 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E17" s="3">
         <v>29900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>28900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>31600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>21000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>26600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>20500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>34600</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
+      <c r="N17" s="3">
+        <v>0</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
@@ -1173,8 +1200,11 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1182,34 +1212,34 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-28900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-31600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-21000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-26600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-20500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-11000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-34600</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
+      <c r="N18" s="3">
+        <v>0</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
@@ -1223,8 +1253,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,8 +1276,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1252,34 +1286,34 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-100</v>
       </c>
       <c r="I20" s="3">
         <v>-100</v>
       </c>
       <c r="J20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
@@ -1293,8 +1327,11 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1302,23 +1339,23 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-28200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-32100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-20700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-26700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-20600</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1343,16 +1380,19 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1360,24 +1400,24 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1387,49 +1427,52 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-30500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-28200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-32100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-20700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-26700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-20600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-34500</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
+      <c r="N23" s="3">
+        <v>0</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
@@ -1443,8 +1486,11 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1452,22 +1498,22 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
@@ -1475,8 +1521,8 @@
       <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>100</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
@@ -1493,8 +1539,11 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1543,43 +1592,46 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-30500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-28200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-31800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-20800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-26700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-20600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-34500</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
+      <c r="N26" s="3">
+        <v>0</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
@@ -1593,43 +1645,46 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-30500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-28200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-31800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-20800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-26700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-20600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-34500</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
+      <c r="N27" s="3">
+        <v>0</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
@@ -1643,8 +1698,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1693,8 +1751,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1743,8 +1804,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1793,8 +1857,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,8 +1910,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1852,34 +1922,34 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>100</v>
       </c>
       <c r="J32" s="3">
+        <v>100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
@@ -1893,43 +1963,46 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-30500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-28200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-31800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-20800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-26700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-20600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-34500</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
+      <c r="N33" s="3">
+        <v>0</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
@@ -1943,8 +2016,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1993,43 +2069,46 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-30500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-28200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-31800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-20800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-26700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-20600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-34500</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
+      <c r="N35" s="3">
+        <v>0</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
@@ -2043,49 +2122,52 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2180,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2118,8 +2203,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2138,44 +2224,45 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>559000</v>
+      </c>
+      <c r="E41" s="3">
         <v>379000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>422000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>444400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>280300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>123500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,8 +2275,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2238,34 +2328,37 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="3">
-        <v>500</v>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F43" s="3">
         <v>500</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>3000</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
+      <c r="K43" s="3">
+        <v>3000</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
@@ -2282,14 +2375,17 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2338,34 +2434,37 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E45" s="3">
         <v>5800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5500</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>200</v>
@@ -2373,8 +2472,8 @@
       <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
+      <c r="N45" s="3">
+        <v>200</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
@@ -2388,44 +2487,47 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>563800</v>
+      </c>
+      <c r="E46" s="3">
         <v>384800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>409000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>429400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>450300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>286100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>109100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>126600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2438,41 +2540,44 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
         <v>116000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>115300</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2488,34 +2593,37 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E48" s="3">
         <v>3200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3500</v>
-      </c>
-      <c r="F48" s="3">
-        <v>3600</v>
       </c>
       <c r="G48" s="3">
         <v>3600</v>
       </c>
       <c r="H48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I48" s="3">
         <v>4200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
@@ -2532,14 +2640,17 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2588,8 +2699,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2638,8 +2752,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2688,16 +2805,19 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2709,13 +2829,13 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
@@ -2726,8 +2846,8 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2738,8 +2858,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2788,44 +2911,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>566700</v>
+      </c>
+      <c r="E54" s="3">
         <v>388000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>412500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>433000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>453900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>290300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>109400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>126600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>117800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>117400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>300</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2838,8 +2964,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2858,8 +2987,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2878,35 +3008,36 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E57" s="3">
         <v>3100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2800</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2922,14 +3053,17 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2961,11 +3095,11 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2978,43 +3112,46 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E59" s="3">
         <v>17400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
@@ -3028,44 +3165,47 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E60" s="3">
         <v>20500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>16500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>19500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>14800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3078,8 +3218,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3128,8 +3271,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3137,31 +3283,31 @@
         <v>2000</v>
       </c>
       <c r="E62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F62" s="3">
         <v>2200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3000</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>4000</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>4000</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
+      <c r="M62" s="3">
+        <v>4000</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
@@ -3178,8 +3324,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3228,8 +3377,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3278,8 +3430,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3328,44 +3483,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E66" s="3">
         <v>22500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>18900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>22500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>300</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3378,8 +3536,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3398,8 +3559,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3448,8 +3610,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3498,8 +3663,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3548,8 +3716,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3598,43 +3769,46 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-266800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-229100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-198700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-170500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-138700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-117900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-91200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-70700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>200</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
+      <c r="N72" s="3">
+        <v>0</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
@@ -3648,8 +3822,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3698,8 +3875,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3748,8 +3928,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3798,43 +3981,46 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>536400</v>
+      </c>
+      <c r="E76" s="3">
         <v>365500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>391500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>414200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>438400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>267800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>94100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>111900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>113400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>113300</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
+      <c r="N76" s="3">
+        <v>0</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
@@ -3848,8 +4034,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3898,49 +4087,52 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3953,43 +4145,46 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-30500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-28200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-31800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-20800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-26700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-20600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-34500</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
+      <c r="N81" s="3">
+        <v>0</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
@@ -4003,8 +4198,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4023,8 +4221,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4046,8 +4245,8 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -4061,8 +4260,8 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -4073,8 +4272,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4123,8 +4325,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4173,8 +4378,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4223,8 +4431,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4273,8 +4484,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4323,43 +4537,46 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-21200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-22500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-22800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-24200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-13800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-23100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-30100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
@@ -4373,8 +4590,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4393,8 +4613,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4402,11 +4623,11 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -4416,8 +4637,8 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -4431,8 +4652,8 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4443,8 +4664,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4493,8 +4717,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4543,8 +4770,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4552,11 +4782,11 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -4567,17 +4797,17 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>115000</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-115000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4587,14 +4817,17 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4613,8 +4846,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4663,8 +4897,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4713,8 +4950,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4763,8 +5003,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4813,44 +5056,47 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>188400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>193600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>30100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>116800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4863,8 +5109,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4913,44 +5162,47 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>179900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-21100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-21800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-22400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>164100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>179700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-23000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>115000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4961,6 +5213,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMVT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMVT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="92">
   <si>
     <t>IMVT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,69 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -740,8 +740,11 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -793,8 +796,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -846,8 +852,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -899,8 +908,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,44 +932,45 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E12" s="3">
         <v>21400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>18700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>18600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>21100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>12000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>16900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>14200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5000</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3">
         <v>28800</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -973,8 +986,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,8 +1042,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1079,8 +1098,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1132,8 +1154,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1150,46 +1175,47 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E17" s="3">
         <v>37700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>29900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>28900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>31600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>21000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>26600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>20500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>34600</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
+      <c r="O17" s="3">
+        <v>0</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
@@ -1203,8 +1229,11 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1212,37 +1241,37 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-29900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-28900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-31600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-21000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-26600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-20500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-11000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-34600</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
+      <c r="O18" s="3">
+        <v>0</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
@@ -1256,8 +1285,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1277,8 +1309,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1286,37 +1319,37 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-100</v>
       </c>
       <c r="J20" s="3">
         <v>-100</v>
       </c>
       <c r="K20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
@@ -1330,8 +1363,11 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1339,26 +1375,26 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-30500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-28200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-32100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-20700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-26700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-20600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1383,8 +1419,11 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,8 +1433,8 @@
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1403,24 +1442,24 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1430,52 +1469,55 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-37700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-30500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-28200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-32100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-20700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-26700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-20600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-34500</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
+      <c r="O23" s="3">
+        <v>0</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
@@ -1489,8 +1531,11 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1501,22 +1546,22 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
-      </c>
-      <c r="K24" s="3">
-        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
@@ -1524,8 +1569,8 @@
       <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>100</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
@@ -1542,8 +1587,11 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1595,46 +1643,49 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-37700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-30500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-28200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-31800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-20800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-26700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-20600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-34500</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
+      <c r="O26" s="3">
+        <v>0</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
@@ -1648,46 +1699,49 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-37700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-30500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-28200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-31800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-20800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-26700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-20600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-34500</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
+      <c r="O27" s="3">
+        <v>0</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
@@ -1701,8 +1755,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1754,8 +1811,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1807,8 +1867,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1860,8 +1923,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1913,8 +1979,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1922,37 +1991,37 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>100</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
       </c>
       <c r="K32" s="3">
+        <v>100</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
@@ -1966,46 +2035,49 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-37700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-30500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-28200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-31800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-20800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-26700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-20600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-34500</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
+      <c r="O33" s="3">
+        <v>0</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
@@ -2019,8 +2091,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2072,46 +2147,49 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-37700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-30500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-28200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-31800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-20800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-26700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-20600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-34500</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
+      <c r="O35" s="3">
+        <v>0</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
@@ -2125,52 +2203,55 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2183,8 +2264,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2204,8 +2288,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2225,47 +2310,48 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>527000</v>
+      </c>
+      <c r="E41" s="3">
         <v>559000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>379000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>422000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>444400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>280300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>123500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2278,8 +2364,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2331,8 +2420,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2342,26 +2434,26 @@
       <c r="E43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="3">
-        <v>500</v>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G43" s="3">
         <v>500</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>3000</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
+      <c r="L43" s="3">
+        <v>3000</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
@@ -2378,14 +2470,17 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2437,37 +2532,40 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E45" s="3">
         <v>4800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5500</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
@@ -2475,8 +2573,8 @@
       <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
+      <c r="O45" s="3">
+        <v>200</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
@@ -2490,47 +2588,50 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>540500</v>
+      </c>
+      <c r="E46" s="3">
         <v>563800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>384800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>409000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>429400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>450300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>286100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>109100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>126600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2543,8 +2644,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2569,18 +2673,18 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3">
         <v>116000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>115300</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2596,37 +2700,40 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E48" s="3">
         <v>2900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3500</v>
-      </c>
-      <c r="G48" s="3">
-        <v>3600</v>
       </c>
       <c r="H48" s="3">
         <v>3600</v>
       </c>
       <c r="I48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J48" s="3">
         <v>4200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
@@ -2643,14 +2750,17 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2702,8 +2812,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2755,8 +2868,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,8 +2924,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2819,8 +2938,8 @@
       <c r="E52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2832,13 +2951,13 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
@@ -2849,8 +2968,8 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2861,8 +2980,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2914,47 +3036,50 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>543200</v>
+      </c>
+      <c r="E54" s="3">
         <v>566700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>388000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>412500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>433000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>453900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>290300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>109400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>126600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>117800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>117400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>300</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,8 +3092,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,8 +3116,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,38 +3138,39 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E57" s="3">
         <v>4200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2800</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3056,14 +3186,17 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3098,11 +3231,11 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3115,46 +3248,49 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E59" s="3">
         <v>24100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>16300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
@@ -3168,47 +3304,50 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E60" s="3">
         <v>28400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>20500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>16500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>19500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3221,8 +3360,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3274,43 +3416,46 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="E62" s="3">
         <v>2000</v>
       </c>
       <c r="F62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G62" s="3">
         <v>2200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3000</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>4000</v>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M62" s="3">
         <v>4000</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
+      <c r="N62" s="3">
+        <v>4000</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
@@ -3327,8 +3472,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,8 +3528,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3433,8 +3584,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3486,47 +3640,50 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E66" s="3">
         <v>30300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>18900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>22500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>300</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3539,8 +3696,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3560,8 +3720,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3613,8 +3774,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3666,8 +3830,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3719,8 +3886,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,46 +3942,49 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-308200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-266800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-229100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-198700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-170500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-138700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-117900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-91200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-70700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>200</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
+      <c r="O72" s="3">
+        <v>0</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
@@ -3825,8 +3998,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3878,8 +4054,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,8 +4110,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3984,46 +4166,49 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>505100</v>
+      </c>
+      <c r="E76" s="3">
         <v>536400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>365500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>391500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>414200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>438400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>267800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>94100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>111900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>113400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>113300</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
+      <c r="O76" s="3">
+        <v>0</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
@@ -4037,8 +4222,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,52 +4278,55 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4148,46 +4339,49 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-37700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-30500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-28200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-31800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-20800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-26700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-20600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-34500</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
+      <c r="O81" s="3">
+        <v>0</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
@@ -4201,8 +4395,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4222,8 +4419,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4248,8 +4446,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -4263,8 +4461,8 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4275,8 +4473,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4328,8 +4529,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,8 +4585,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +4641,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,8 +4697,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4540,46 +4753,49 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-20000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-21200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-22500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-22800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-24200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-13800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-23100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-30100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
+      <c r="O89" s="3">
+        <v>0</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
@@ -4593,8 +4809,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4614,23 +4833,24 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -4640,8 +4860,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -4655,8 +4875,8 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4667,8 +4887,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4720,8 +4943,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4773,23 +4999,26 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -4800,17 +5029,17 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>115000</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-115000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4820,14 +5049,17 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4847,8 +5079,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4900,8 +5133,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4953,8 +5189,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,8 +5245,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5059,47 +5301,50 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>200000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>188400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>193600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>30100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>116800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5112,8 +5357,11 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5165,47 +5413,50 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="E102" s="3">
         <v>179900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-21100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-21800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-22400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>164100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>179700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-23000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>115000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5216,6 +5467,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMVT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMVT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="92">
   <si>
     <t>IMVT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,77 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
@@ -743,8 +745,14 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -799,8 +807,14 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -855,8 +869,14 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,8 +931,14 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -933,50 +959,52 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>32000</v>
+      </c>
+      <c r="F12" s="3">
         <v>29800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>21400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>18700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>18600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>21100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>12000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>16900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>14200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>5000</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3">
         <v>28800</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
@@ -989,8 +1017,14 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1045,8 +1079,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1101,8 +1141,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1157,8 +1203,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1176,52 +1228,54 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>47200</v>
+      </c>
+      <c r="F17" s="3">
         <v>41300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>37700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>29900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>28900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>31600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>21000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>26600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>20500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>11000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>34600</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
+      <c r="Q17" s="3">
+        <v>0</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
@@ -1232,8 +1286,14 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1241,43 +1301,43 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-47200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-37700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-29900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-28900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-31600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-21000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-26600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-20500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-11000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-34600</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
+      <c r="Q18" s="3">
+        <v>0</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
@@ -1288,8 +1348,14 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1310,8 +1376,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1319,43 +1387,43 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
@@ -1366,8 +1434,14 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1375,32 +1449,32 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-47100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="G21" s="3">
         <v>-37700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-30500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-28200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-32100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-20700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-26700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-20600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1422,8 +1496,14 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1436,94 +1516,100 @@
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-47200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-41400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-37700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-30500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-28200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-32100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-20700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-26700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-20600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-11200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-34500</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
+      <c r="Q23" s="3">
+        <v>0</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
@@ -1534,13 +1620,19 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1549,34 +1641,34 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-100</v>
-      </c>
-      <c r="L24" s="3">
-        <v>100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
+      <c r="O24" s="3">
+        <v>100</v>
+      </c>
+      <c r="P24" s="3">
+        <v>100</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
@@ -1590,8 +1682,14 @@
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1646,52 +1744,58 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-47200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-41400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-37700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-30500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-28200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-31800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-20800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-26700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-20600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-11300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-34500</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
+      <c r="Q26" s="3">
+        <v>0</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
@@ -1702,52 +1806,58 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-47200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-41400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-37700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-30500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-28200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-31800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-20800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-26700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-20600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-11300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-34500</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
+      <c r="Q27" s="3">
+        <v>0</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
@@ -1758,8 +1868,14 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1814,8 +1930,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1870,8 +1992,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1926,8 +2054,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1982,8 +2116,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1991,43 +2131,43 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>100</v>
+      </c>
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
@@ -2038,52 +2178,58 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-47200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-41400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-37700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-30500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-28200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-31800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-20800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-26700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-20600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-11300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-34500</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
+      <c r="Q33" s="3">
+        <v>0</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
@@ -2094,8 +2240,14 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2150,52 +2302,58 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-47200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-41400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-37700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-30500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-28200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-31800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-20800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-26700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-20600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-11300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-34500</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
+      <c r="Q35" s="3">
+        <v>0</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
@@ -2206,58 +2364,64 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2267,8 +2431,14 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2289,8 +2459,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2311,53 +2483,55 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>427200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>493800</v>
+      </c>
+      <c r="F41" s="3">
         <v>527000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>559000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>379000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>400100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>422000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>444400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>280300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>100600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>123500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2367,8 +2541,14 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2423,44 +2603,50 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>12900</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>3000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>3000</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2473,14 +2659,20 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2535,52 +2727,58 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F45" s="3">
         <v>13500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>4800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>5800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>8300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>7000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>5900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>5800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>5500</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>200</v>
-      </c>
       <c r="N45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
+      <c r="P45" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>200</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
@@ -2591,53 +2789,59 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>456300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>512900</v>
+      </c>
+      <c r="F46" s="3">
         <v>540500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>563800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>384800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>409000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>429400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>450300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>286100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>109100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>126600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2647,8 +2851,14 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2676,21 +2886,21 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3">
         <v>116000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>115300</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2703,43 +2913,49 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F48" s="3">
         <v>2700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>3200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>3500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>3600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>4200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
@@ -2753,14 +2969,20 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2815,8 +3037,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2871,8 +3099,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2927,19 +3161,25 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2954,16 +3194,16 @@
         <v>0</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
@@ -2971,11 +3211,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -2983,8 +3223,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3039,53 +3285,59 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>458700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>515600</v>
+      </c>
+      <c r="F54" s="3">
         <v>543200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>566700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>388000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>412500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>433000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>453900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>290300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>109400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>126600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>117800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>117400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>300</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3347,14 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3117,8 +3375,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3139,44 +3399,46 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>18600</v>
+      </c>
+      <c r="F57" s="3">
         <v>3800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>5800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>8000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2800</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3189,14 +3451,20 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3234,14 +3502,14 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3251,52 +3519,58 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>25900</v>
+      </c>
+      <c r="F59" s="3">
         <v>32500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>24100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>17400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>16300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>14400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>7000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>11500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>14100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>11900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
+      <c r="Q59" s="3">
+        <v>0</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
@@ -3307,52 +3581,58 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>44500</v>
+      </c>
+      <c r="F60" s="3">
         <v>36400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>28400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>20500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>18800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>16500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>12800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>19500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>15300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>14800</v>
-      </c>
-      <c r="M60" s="3">
-        <v>300</v>
-      </c>
-      <c r="N60" s="3">
-        <v>100</v>
       </c>
       <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
+      <c r="P60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>300</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
@@ -3363,8 +3643,14 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3419,50 +3705,56 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F62" s="3">
         <v>1700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>3000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3">
         <v>4000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>4000</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3475,8 +3767,14 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3531,8 +3829,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3587,8 +3891,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3643,53 +3953,59 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>45700</v>
+      </c>
+      <c r="F66" s="3">
         <v>38000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>30300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>22500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>21000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>18900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>15500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>22500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>15300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>14800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>300</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3699,8 +4015,14 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3721,8 +4043,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3777,8 +4101,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3833,8 +4163,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3889,8 +4225,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3945,52 +4287,58 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-395800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-355400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-308200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-266800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-229100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-198700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-170500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-138700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-117900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-91200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-70700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>200</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
+      <c r="Q72" s="3">
+        <v>0</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
@@ -4001,8 +4349,14 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4057,8 +4411,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4113,8 +4473,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4169,52 +4535,58 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>436500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>469800</v>
+      </c>
+      <c r="F76" s="3">
         <v>505100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>536400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>365500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>391500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>414200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>438400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>267800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>94100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>111900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>113400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>113300</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
+      <c r="Q76" s="3">
+        <v>0</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
@@ -4225,8 +4597,14 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4281,58 +4659,64 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4342,52 +4726,58 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-47200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-41400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-37700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-30500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-28200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-31800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-20800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-26700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-20600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-11300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-34500</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
+      <c r="Q81" s="3">
+        <v>0</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
@@ -4398,8 +4788,14 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4420,8 +4816,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4449,11 +4847,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -4464,11 +4862,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4476,8 +4874,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4532,8 +4936,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4588,8 +4998,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4644,8 +5060,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4700,8 +5122,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4756,52 +5184,58 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-31900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-20000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-21200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-22500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-22800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-24200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-13800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-23100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-30100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
+      <c r="Q89" s="3">
+        <v>0</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
@@ -4812,8 +5246,14 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4834,40 +5274,42 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
@@ -4878,11 +5320,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -4890,8 +5332,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4946,8 +5394,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5002,29 +5456,35 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -5032,34 +5492,40 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>115000</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-115000</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5080,8 +5546,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5136,8 +5604,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5192,8 +5666,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5248,8 +5728,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5304,8 +5790,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5313,44 +5805,44 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>200000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>188400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>193600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>30100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>116800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5360,31 +5852,37 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -5416,53 +5914,59 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-66600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-33200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-31900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>179900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-21100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-21800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-22400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>164100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>179700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-23000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>115000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5470,6 +5974,12 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMVT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMVT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="92">
   <si>
     <t>IMVT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,81 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
@@ -751,8 +752,11 @@
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -813,8 +817,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -875,8 +882,11 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,8 +947,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -961,53 +974,54 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E12" s="3">
         <v>28400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>32000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>29800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>21400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>18700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>18600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>21100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>12000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>16900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>14200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5000</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3">
         <v>28800</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1023,8 +1037,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1085,8 +1102,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1147,8 +1167,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1209,8 +1232,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1230,55 +1256,56 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>49600</v>
+      </c>
+      <c r="E17" s="3">
         <v>40400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>47200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>41300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>37700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>29900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>28900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>31600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>21000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>26600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>34600</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
+      <c r="R17" s="3">
+        <v>0</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
@@ -1292,8 +1319,11 @@
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1301,46 +1331,46 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-47200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-41300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-37700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-29900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-28900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-31600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-21000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-26600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-20500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-11000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-34600</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
+      <c r="R18" s="3">
+        <v>0</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
@@ -1354,8 +1384,11 @@
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1378,8 +1411,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1387,46 +1421,46 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
       </c>
       <c r="H20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-100</v>
       </c>
       <c r="M20" s="3">
         <v>-100</v>
       </c>
       <c r="N20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
@@ -1440,8 +1474,11 @@
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1449,35 +1486,35 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-47100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-41400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-37700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-30500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-28200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-32100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-20700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-26700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-20600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1502,8 +1539,11 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1522,8 +1562,8 @@
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1531,24 +1571,24 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1558,61 +1598,64 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-47700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-40000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-47200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-41400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-37700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-30500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-28200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-32100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-20700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-26700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-20600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-34500</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
+      <c r="R23" s="3">
+        <v>0</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
@@ -1626,17 +1669,20 @@
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1647,22 +1693,22 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-400</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>100</v>
@@ -1670,8 +1716,8 @@
       <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
+      <c r="Q24" s="3">
+        <v>100</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
@@ -1688,8 +1734,11 @@
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1750,55 +1799,58 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-47900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-40400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-47200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-41400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-37700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-30500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-28200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-31800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-20800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-26700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-20600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-11300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-34500</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
+      <c r="R26" s="3">
+        <v>0</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
@@ -1812,55 +1864,58 @@
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-47900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-40400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-47200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-41400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-37700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-30500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-28200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-31800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-20800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-26700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-20600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-11300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-34500</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
+      <c r="R27" s="3">
+        <v>0</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
@@ -1874,8 +1929,11 @@
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1936,8 +1994,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1998,8 +2059,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2060,8 +2124,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2122,8 +2189,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2131,46 +2201,46 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
       </c>
       <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>100</v>
       </c>
       <c r="N32" s="3">
+        <v>100</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
@@ -2184,55 +2254,58 @@
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-47900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-40400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-47200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-41400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-37700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-30500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-28200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-31800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-20800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-26700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-20600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-11300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-34500</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
+      <c r="R33" s="3">
+        <v>0</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
@@ -2246,8 +2319,11 @@
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2308,55 +2384,58 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-47900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-40400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-47200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-41400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-37700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-30500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-28200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-31800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-20800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-26700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-20600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-11300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-34500</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
+      <c r="R35" s="3">
+        <v>0</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
@@ -2370,61 +2449,64 @@
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2437,8 +2519,11 @@
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2461,8 +2546,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2485,56 +2571,57 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>405800</v>
+      </c>
+      <c r="E41" s="3">
         <v>427200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>493800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>527000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>559000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>379000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>422000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>444400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>280300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>100600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>123500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2547,8 +2634,11 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2609,46 +2699,49 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E43" s="3">
         <v>13200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12900</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="3">
-        <v>500</v>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J43" s="3">
         <v>500</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>3000</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
+      <c r="O43" s="3">
+        <v>3000</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
@@ -2665,14 +2758,17 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="U43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2733,46 +2829,49 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E45" s="3">
         <v>15900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5500</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
@@ -2780,8 +2879,8 @@
       <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
+      <c r="R45" s="3">
+        <v>200</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
@@ -2795,56 +2894,59 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>426100</v>
+      </c>
+      <c r="E46" s="3">
         <v>456300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>512900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>540500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>563800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>384800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>409000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>429400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>450300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>286100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>109100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>126600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2857,8 +2959,11 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2892,18 +2997,18 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3">
         <v>116000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>115300</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2919,46 +3024,49 @@
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>3600</v>
       </c>
       <c r="K48" s="3">
         <v>3600</v>
       </c>
       <c r="L48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M48" s="3">
         <v>4200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>100</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
@@ -2975,14 +3083,17 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
+      <c r="U48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3043,8 +3154,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3105,8 +3219,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3167,8 +3284,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3200,13 +3320,13 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
@@ -3217,8 +3337,8 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3229,8 +3349,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3291,56 +3414,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>428100</v>
+      </c>
+      <c r="E54" s="3">
         <v>458700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>515600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>543200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>566700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>388000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>412500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>433000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>453900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>290300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>109400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>126600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>117800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>117400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>300</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3353,8 +3479,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3377,8 +3506,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3401,47 +3531,48 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>18600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2800</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3457,14 +3588,17 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U57" s="3">
-        <v>0</v>
+      <c r="U57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3508,11 +3642,11 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>300</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3525,55 +3659,58 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E59" s="3">
         <v>20200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>25900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>32500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>24100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>16300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
+      <c r="R59" s="3">
+        <v>0</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
@@ -3587,56 +3724,59 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E60" s="3">
         <v>21200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>44500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>36400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>28400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>20500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>16500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>300</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3649,8 +3789,11 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3711,52 +3854,55 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>600</v>
+      </c>
+      <c r="E62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1700</v>
-      </c>
-      <c r="G62" s="3">
-        <v>2000</v>
       </c>
       <c r="H62" s="3">
         <v>2000</v>
       </c>
       <c r="I62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J62" s="3">
         <v>2200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3000</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3">
-        <v>4000</v>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P62" s="3">
         <v>4000</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
+      <c r="Q62" s="3">
+        <v>4000</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
@@ -3773,8 +3919,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3835,8 +3984,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3897,8 +4049,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3959,56 +4114,59 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E66" s="3">
         <v>22200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>45700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>38000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>30300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>22500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>21000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>18900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>22500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>300</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4021,8 +4179,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4045,8 +4206,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4107,8 +4269,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4169,8 +4334,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4231,8 +4399,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4293,55 +4464,58 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-443700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-395800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-355400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-308200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-266800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-229100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-198700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-170500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-138700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-117900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-91200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-70700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>200</v>
       </c>
-      <c r="Q72" s="3">
-        <v>0</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
+      <c r="R72" s="3">
+        <v>0</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
@@ -4355,8 +4529,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4417,8 +4594,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4479,8 +4659,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4541,55 +4724,58 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>395700</v>
+      </c>
+      <c r="E76" s="3">
         <v>436500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>469800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>505100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>536400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>365500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>391500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>414200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>438400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>267800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>94100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>111900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>113400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>113300</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
+      <c r="R76" s="3">
+        <v>0</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
@@ -4603,8 +4789,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4665,61 +4854,64 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4732,55 +4924,58 @@
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-47900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-40400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-47200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-41400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-37700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-30500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-28200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-31800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-20800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-26700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-20600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-11300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-34500</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
+      <c r="R81" s="3">
+        <v>0</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
@@ -4794,8 +4989,11 @@
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4818,8 +5016,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4853,8 +5052,8 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
@@ -4868,8 +5067,8 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -4880,8 +5079,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4942,8 +5144,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5004,8 +5209,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5066,8 +5274,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5128,8 +5339,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5190,55 +5404,58 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-65800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-33000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-31900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-20000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-21200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-22500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-22800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-24200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-13800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-23100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-30100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
+      <c r="R89" s="3">
+        <v>0</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
@@ -5252,8 +5469,11 @@
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5276,8 +5496,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5285,23 +5506,23 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -5311,8 +5532,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
@@ -5326,8 +5547,8 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5338,8 +5559,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5400,8 +5624,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5462,8 +5689,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5471,23 +5701,23 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -5498,17 +5728,17 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>115000</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-115000</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5518,14 +5748,17 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="U94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5548,8 +5781,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5610,8 +5844,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5672,8 +5909,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5734,8 +5974,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5796,8 +6039,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5811,41 +6057,41 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>200000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>188400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>193600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>30100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>116800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5858,20 +6104,23 @@
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5884,8 +6133,8 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -5920,56 +6169,59 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-66600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-33200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-31900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>179900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-21100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-21800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-22400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>164100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>179700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-23000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>115000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5980,6 +6232,9 @@
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMVT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMVT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="92">
   <si>
     <t>IMVT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,84 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
@@ -755,8 +755,11 @@
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -820,8 +823,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -885,8 +891,11 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +959,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,56 +987,57 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E12" s="3">
         <v>37700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>28400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>32000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>29800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>21400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>18700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>18600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>21100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>12000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>16900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>14200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>5000</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3">
         <v>28800</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1040,8 +1053,11 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1105,31 +1121,34 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>10000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1170,8 +1189,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1235,8 +1257,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1257,58 +1282,59 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E17" s="3">
         <v>49600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>40400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>47200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>41300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>37700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>29900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>28900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>31600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>26600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>20500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>34600</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
+      <c r="S17" s="3">
+        <v>0</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
@@ -1322,8 +1348,11 @@
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1331,49 +1360,49 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-49600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-40400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-47200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-41300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-37700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-29900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-28900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-31600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-21000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-26600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-20500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-11000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-34600</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
+      <c r="S18" s="3">
+        <v>0</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
@@ -1387,8 +1416,11 @@
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1412,8 +1444,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1421,49 +1454,49 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
       </c>
       <c r="I20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-100</v>
       </c>
       <c r="N20" s="3">
         <v>-100</v>
       </c>
       <c r="O20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
+      <c r="S20" s="3">
+        <v>0</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
@@ -1477,8 +1510,11 @@
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1486,38 +1522,38 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-40000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-47100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-41400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-37700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-30500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-28200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-32100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-20700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-26700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-20600</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1542,8 +1578,11 @@
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1565,8 +1604,8 @@
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1574,24 +1613,24 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1601,64 +1640,67 @@
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-62800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-47700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-40000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-47200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-41400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-37700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-30500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-28200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-32100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-20700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-26700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-20600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-11200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-34500</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
+      <c r="S23" s="3">
+        <v>0</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
@@ -1672,20 +1714,23 @@
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1696,22 +1741,22 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-400</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-100</v>
-      </c>
-      <c r="O24" s="3">
-        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>100</v>
@@ -1719,8 +1764,8 @@
       <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
+      <c r="R24" s="3">
+        <v>100</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
@@ -1737,8 +1782,11 @@
       <c r="W24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1802,58 +1850,61 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-63200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-47900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-40400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-47200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-41400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-37700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-30500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-28200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-31800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-20800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-26700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-20600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-11300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-34500</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
+      <c r="S26" s="3">
+        <v>0</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
@@ -1867,58 +1918,61 @@
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-63200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-47900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-40400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-47200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-41400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-37700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-30500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-28200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-31800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-20800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-26700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-20600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-11300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-34500</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
+      <c r="S27" s="3">
+        <v>0</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
@@ -1932,8 +1986,11 @@
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1997,8 +2054,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2062,8 +2122,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2127,8 +2190,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2192,8 +2258,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2201,49 +2270,49 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
       </c>
       <c r="I32" s="3">
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>100</v>
       </c>
       <c r="N32" s="3">
         <v>100</v>
       </c>
       <c r="O32" s="3">
+        <v>100</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
+      <c r="S32" s="3">
+        <v>0</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
@@ -2257,58 +2326,61 @@
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-63200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-47900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-40400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-47200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-41400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-37700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-30500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-28200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-31800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-20800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-26700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-20600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-11300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-34500</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
+      <c r="S33" s="3">
+        <v>0</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
@@ -2322,8 +2394,11 @@
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2387,58 +2462,61 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-63200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-47900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-40400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-47200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-41400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-37700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-30500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-28200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-31800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-20800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-26700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-20600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-11300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-34500</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
+      <c r="S35" s="3">
+        <v>0</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
@@ -2452,64 +2530,67 @@
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2522,8 +2603,11 @@
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2547,8 +2631,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2572,59 +2657,60 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>432600</v>
+      </c>
+      <c r="E41" s="3">
         <v>405800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>427200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>493800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>527000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>559000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>379000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>422000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>444400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>280300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>100600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>123500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2637,8 +2723,11 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2702,49 +2791,52 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>700</v>
+      </c>
+      <c r="E43" s="3">
         <v>3800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12900</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J43" s="3">
-        <v>500</v>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>500</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>3000</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
+      <c r="P43" s="3">
+        <v>3000</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
@@ -2761,14 +2853,17 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
+      <c r="V43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2832,49 +2927,52 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E45" s="3">
         <v>16500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5500</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>200</v>
@@ -2882,8 +2980,8 @@
       <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
+      <c r="S45" s="3">
+        <v>200</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
@@ -2897,59 +2995,62 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>454400</v>
+      </c>
+      <c r="E46" s="3">
         <v>426100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>456300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>512900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>540500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>563800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>384800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>409000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>429400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>450300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>286100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>109100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>126600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2962,8 +3063,11 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3000,18 +3104,18 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P47" s="3">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3">
         <v>116000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>115300</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3027,49 +3131,52 @@
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E48" s="3">
         <v>2100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3500</v>
-      </c>
-      <c r="K48" s="3">
-        <v>3600</v>
       </c>
       <c r="L48" s="3">
         <v>3600</v>
       </c>
       <c r="M48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="N48" s="3">
         <v>4200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>100</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
+      <c r="P48" s="3">
+        <v>0</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
@@ -3086,14 +3193,17 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
+      <c r="V48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3157,8 +3267,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3222,8 +3335,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3287,8 +3403,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3323,13 +3442,13 @@
         <v>0</v>
       </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>200</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
+      <c r="P52" s="3">
+        <v>0</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
@@ -3340,8 +3459,8 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -3352,8 +3471,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3417,59 +3539,62 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>456200</v>
+      </c>
+      <c r="E54" s="3">
         <v>428100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>458700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>515600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>543200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>566700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>388000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>412500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>433000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>453900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>290300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>109400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>126600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>117800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>117400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>300</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3482,8 +3607,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3507,8 +3635,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3532,50 +3661,51 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E57" s="3">
         <v>7500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>18600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2800</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3591,14 +3721,17 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V57" s="3">
-        <v>0</v>
+      <c r="V57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3645,11 +3778,11 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>300</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,58 +3795,61 @@
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E59" s="3">
         <v>24300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>25900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>32500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>24100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>17400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>16300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
+      <c r="S59" s="3">
+        <v>0</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
@@ -3727,59 +3863,62 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E60" s="3">
         <v>31800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>21200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>44500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>36400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>28400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>20500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>18800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>16500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>19500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>14800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3792,8 +3931,11 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3857,55 +3999,58 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
         <v>600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1700</v>
-      </c>
-      <c r="H62" s="3">
-        <v>2000</v>
       </c>
       <c r="I62" s="3">
         <v>2000</v>
       </c>
       <c r="J62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K62" s="3">
         <v>2200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3000</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P62" s="3">
-        <v>4000</v>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q62" s="3">
         <v>4000</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
+      <c r="R62" s="3">
+        <v>4000</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
@@ -3922,8 +4067,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3987,8 +4135,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4052,8 +4203,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4117,59 +4271,62 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E66" s="3">
         <v>32400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>45700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>38000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>30300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>22500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>21000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>22500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>300</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4182,8 +4339,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4207,8 +4367,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4272,8 +4433,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4337,8 +4501,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4402,8 +4569,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4467,58 +4637,61 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-506900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-443700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-395800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-355400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-308200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-266800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-229100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-198700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-170500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-138700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-117900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-91200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-70700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>200</v>
       </c>
-      <c r="R72" s="3">
-        <v>0</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
+      <c r="S72" s="3">
+        <v>0</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
@@ -4532,8 +4705,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4597,8 +4773,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4662,8 +4841,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4727,58 +4909,61 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>414700</v>
+      </c>
+      <c r="E76" s="3">
         <v>395700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>436500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>469800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>505100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>536400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>365500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>391500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>414200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>438400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>267800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>94100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>111900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>113400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>113300</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
+      <c r="S76" s="3">
+        <v>0</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
@@ -4792,8 +4977,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4857,64 +5045,67 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4927,58 +5118,61 @@
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-63200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-47900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-40400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-47200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-41400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-37700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-30500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-28200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-31800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-20800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-26700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-20600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-11300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-34500</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
+      <c r="S81" s="3">
+        <v>0</v>
       </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
@@ -4992,8 +5186,11 @@
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5017,8 +5214,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5055,8 +5253,8 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
@@ -5070,8 +5268,8 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
@@ -5082,8 +5280,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5147,8 +5348,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5212,8 +5416,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5277,8 +5484,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5342,8 +5552,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5407,58 +5620,61 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-46400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-20200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-65800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-33000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-31900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-20000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-21200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-22500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-22800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-24200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-13800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-23100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-30100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
+      <c r="S89" s="3">
+        <v>0</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
@@ -5472,8 +5688,11 @@
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5497,35 +5716,36 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -5535,8 +5755,8 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
@@ -5550,8 +5770,8 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -5562,8 +5782,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5627,8 +5850,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5692,35 +5918,38 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -5731,17 +5960,17 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>115000</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-115000</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5751,14 +5980,17 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
+      <c r="V94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5782,8 +6014,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5847,8 +6080,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5912,8 +6148,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5977,8 +6216,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6042,13 +6284,16 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>70600</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -6060,41 +6305,41 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>200000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>188400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>193600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>30100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>116800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-200</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6107,23 +6352,26 @@
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -6136,8 +6384,8 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -6172,59 +6420,62 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-21400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-66600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-33200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-31900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>179900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-21100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-21800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-22400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>164100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>179700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-23000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>115000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6235,6 +6486,9 @@
         <v>3</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMVT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMVT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="92">
   <si>
     <t>IMVT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,90 +665,92 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
@@ -758,8 +760,14 @@
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -826,8 +834,14 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -894,8 +908,14 @@
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -962,8 +982,14 @@
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -988,62 +1014,64 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>50600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>51800</v>
+      </c>
+      <c r="F12" s="3">
         <v>42300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>37700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>28400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>32000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>29800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>21400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>18700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>18600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>21100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>12000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>16900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>14200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>5000</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="3">
         <v>28800</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1056,8 +1084,14 @@
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1124,20 +1158,26 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>10000</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1150,11 +1190,11 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1192,8 +1232,14 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1260,8 +1306,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1283,64 +1335,66 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>78500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>64300</v>
+      </c>
+      <c r="F17" s="3">
         <v>64000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>49600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>40400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>47200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>41300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>37700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>29900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>28900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>31600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>21000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>26600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>20500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>11000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>34600</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
+      <c r="U17" s="3">
+        <v>0</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
@@ -1351,8 +1405,14 @@
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1360,55 +1420,55 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-64300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="G18" s="3">
         <v>-49600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-40400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-47200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-41300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-37700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-29900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-28900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-31600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-21000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-26600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-20500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-34600</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
+      <c r="U18" s="3">
+        <v>0</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
@@ -1419,8 +1479,14 @@
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1445,8 +1511,10 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1454,55 +1522,55 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G20" s="3">
         <v>1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
+      <c r="U20" s="3">
+        <v>0</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
@@ -1513,8 +1581,14 @@
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1522,44 +1596,44 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-60400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-62800</v>
+      </c>
+      <c r="G21" s="3">
         <v>-47600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-40000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-47100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-41400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-37700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-30500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-28200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-32100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-20700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-26700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-20600</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1581,132 +1655,144 @@
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-73900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-60400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-62800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-47700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-40000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-47200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-41400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-37700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-30500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-28200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-32100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-20700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-26700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-20600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-34500</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
+      <c r="U23" s="3">
+        <v>0</v>
       </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
@@ -1717,25 +1803,31 @@
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>300</v>
+        <v>-1000</v>
       </c>
       <c r="F24" s="3">
         <v>400</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1744,34 +1836,34 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-400</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-100</v>
-      </c>
-      <c r="P24" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>100</v>
       </c>
       <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
+      <c r="S24" s="3">
+        <v>100</v>
+      </c>
+      <c r="T24" s="3">
+        <v>100</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>3</v>
@@ -1785,8 +1877,14 @@
       <c r="X24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1853,64 +1951,70 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-73900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-59400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-63200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-47900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-40400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-47200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-41400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-37700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-30500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-28200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-31800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-20800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-26700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-20600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-34500</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
+      <c r="U26" s="3">
+        <v>0</v>
       </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
@@ -1921,64 +2025,70 @@
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-73900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-59400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-63200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-47900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-40400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-47200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-41400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-37700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-30500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-28200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-31800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-20800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-26700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-20600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-34500</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
+      <c r="U27" s="3">
+        <v>0</v>
       </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
@@ -1989,8 +2099,14 @@
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2057,8 +2173,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2125,8 +2247,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2193,8 +2321,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2261,8 +2395,14 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2270,55 +2410,55 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
+      <c r="U32" s="3">
+        <v>0</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
@@ -2329,64 +2469,70 @@
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-73900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-59400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-63200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-47900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-40400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-47200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-41400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-37700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-30500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-28200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-31800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-20800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-26700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-20600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-34500</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
+      <c r="U33" s="3">
+        <v>0</v>
       </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
@@ -2397,8 +2543,14 @@
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2465,64 +2617,70 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-73900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-59400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-63200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-47900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-40400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-47200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-41400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-37700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-30500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-28200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-31800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-20800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-26700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-20600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-34500</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
+      <c r="U35" s="3">
+        <v>0</v>
       </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
@@ -2533,70 +2691,76 @@
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2606,8 +2770,14 @@
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2632,8 +2802,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2658,65 +2830,67 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>330000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>376500</v>
+      </c>
+      <c r="F41" s="3">
         <v>432600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>405800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>427200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>493800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>527000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>559000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>379000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>400100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>422000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>444400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>280300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>100600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>123500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2726,8 +2900,14 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2794,56 +2974,62 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>900</v>
+      </c>
+      <c r="F43" s="3">
         <v>700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>3800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>13200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>12900</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3">
         <v>500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>500</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>3000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>3000</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2856,14 +3042,20 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W43" s="3">
-        <v>0</v>
-      </c>
-      <c r="X43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2930,64 +3122,70 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>26900</v>
+      </c>
+      <c r="F45" s="3">
         <v>21100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>16500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>15900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>6300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>13500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>4800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>5800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>8300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>7000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>5900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>5800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>5500</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>200</v>
-      </c>
       <c r="R45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
+      <c r="T45" s="3">
+        <v>200</v>
+      </c>
+      <c r="U45" s="3">
+        <v>200</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>3</v>
@@ -2998,65 +3196,71 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>350000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>404300</v>
+      </c>
+      <c r="F46" s="3">
         <v>454400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>426100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>456300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>512900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>540500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>563800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>384800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>409000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>429400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>450300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>286100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>109100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>126600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3066,8 +3270,14 @@
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3107,21 +3317,21 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
+      <c r="P47" s="3">
+        <v>0</v>
       </c>
       <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S47" s="3">
         <v>116000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>115300</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3134,55 +3344,61 @@
       <c r="X47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F48" s="3">
         <v>1800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>4200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>100</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
+      <c r="R48" s="3">
+        <v>0</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
@@ -3196,14 +3412,20 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W48" s="3">
-        <v>0</v>
-      </c>
-      <c r="X48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3270,8 +3492,14 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3338,8 +3566,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3406,8 +3640,14 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3445,16 +3685,16 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>200</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
+      <c r="R52" s="3">
+        <v>0</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
@@ -3462,11 +3702,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
-      <c r="V52" s="3">
-        <v>0</v>
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
@@ -3474,8 +3714,14 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3542,65 +3788,71 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>351200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>405800</v>
+      </c>
+      <c r="F54" s="3">
         <v>456200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>428100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>458700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>515600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>543200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>566700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>388000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>412500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>433000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>453900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>290300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>109400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>126600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>117800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>117400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>300</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3610,8 +3862,14 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3636,8 +3894,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3662,56 +3922,58 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F57" s="3">
         <v>14000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>7500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>18600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>4200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>5800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>8000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2800</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3724,14 +3986,20 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W57" s="3">
-        <v>0</v>
-      </c>
-      <c r="X57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3781,14 +4049,14 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>300</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3798,64 +4066,70 @@
       <c r="X58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>41900</v>
+      </c>
+      <c r="F59" s="3">
         <v>27300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>24300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>20200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>25900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>32500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>24100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>17400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>16300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>14400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>7000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>11500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>14100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>11900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>100</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
+      <c r="U59" s="3">
+        <v>0</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
@@ -3866,64 +4140,70 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>43300</v>
+      </c>
+      <c r="F60" s="3">
         <v>41300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>31800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>21200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>44500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>36400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>28400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>20500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>18800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>16500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>12800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>19500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>15300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>14800</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>300</v>
-      </c>
-      <c r="R60" s="3">
-        <v>100</v>
       </c>
       <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
+      <c r="T60" s="3">
+        <v>100</v>
+      </c>
+      <c r="U60" s="3">
+        <v>300</v>
       </c>
       <c r="V60" s="3" t="s">
         <v>3</v>
@@ -3934,8 +4214,14 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4002,62 +4288,68 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>3000</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S62" s="3">
         <v>4000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>4000</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4070,8 +4362,14 @@
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4138,8 +4436,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4206,8 +4510,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4274,65 +4584,71 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>43300</v>
+      </c>
+      <c r="F66" s="3">
         <v>41600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>32400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>22200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>45700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>38000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>30300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>22500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>21000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>18900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>15500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>22500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>15300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>14800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>4400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>4100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>300</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4342,8 +4658,14 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4368,8 +4690,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4436,8 +4760,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4504,8 +4834,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4572,8 +4908,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4640,64 +4982,70 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-640300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-566300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-506900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-443700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-395800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-355400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-308200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-266800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-229100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-198700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-170500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-138700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-117900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-91200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-70700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>200</v>
       </c>
-      <c r="S72" s="3">
-        <v>0</v>
-      </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
+      <c r="U72" s="3">
+        <v>0</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
@@ -4708,8 +5056,14 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4776,8 +5130,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4844,8 +5204,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4912,64 +5278,70 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>299900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>362500</v>
+      </c>
+      <c r="F76" s="3">
         <v>414700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>395700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>436500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>469800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>505100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>536400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>365500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>391500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>414200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>438400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>267800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>94100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>111900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>113400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>113300</v>
       </c>
-      <c r="S76" s="3">
-        <v>0</v>
-      </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
+      <c r="U76" s="3">
+        <v>0</v>
       </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
@@ -4980,8 +5352,14 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5048,70 +5426,76 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5121,64 +5505,70 @@
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-73900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-59400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-63200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-47900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-40400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-47200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-41400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-37700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-30500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-28200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-31800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-20800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-26700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-20600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-34500</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
+      <c r="U81" s="3">
+        <v>0</v>
       </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
@@ -5189,8 +5579,14 @@
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5215,16 +5611,18 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -5256,11 +5654,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
@@ -5271,11 +5669,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
-      </c>
-      <c r="V83" s="3">
-        <v>0</v>
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
@@ -5283,8 +5681,14 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5351,8 +5755,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5419,8 +5829,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5487,8 +5903,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5555,8 +5977,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5623,64 +6051,70 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-47400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-55800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-46400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-20200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-65800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-33000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-31900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-20000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-21200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-22500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-22800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-24200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-13800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-23100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-30100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
+      <c r="U89" s="3">
+        <v>0</v>
       </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
@@ -5691,8 +6125,14 @@
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5717,52 +6157,54 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
@@ -5773,11 +6215,11 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -5785,8 +6227,14 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5853,8 +6301,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5921,41 +6375,47 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -5963,34 +6423,40 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>115000</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-115000</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6015,8 +6481,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6083,8 +6551,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6151,8 +6625,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6219,8 +6699,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6287,20 +6773,26 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
         <v>70600</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -6308,44 +6800,44 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>200000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>188400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>193600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>30100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>116800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-200</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6355,29 +6847,35 @@
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F101" s="3">
         <v>2700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-1200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -6387,11 +6885,11 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -6423,65 +6921,71 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-46600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-56100</v>
+      </c>
+      <c r="F102" s="3">
         <v>26800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-21400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-66600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-33200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-31900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>179900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-21100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-21800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-22400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>164100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>179700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-23000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>115000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>1600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6489,6 +6993,12 @@
         <v>3</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IMVT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IMVT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="92">
   <si>
     <t>IMVT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,95 +665,96 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
@@ -766,8 +767,11 @@
       <c r="Z7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -840,8 +844,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -914,8 +921,11 @@
       <c r="Z9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -988,8 +998,11 @@
       <c r="Z10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1016,65 +1029,66 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E12" s="3">
         <v>50600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>51800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>42300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>37700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>28400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>32000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>29800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>21400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>18700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>18600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>21100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>12000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>16900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>14200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>5000</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T12" s="3">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="3">
         <v>28800</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1090,8 +1104,11 @@
       <c r="Z12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1164,23 +1181,26 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>12500</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>10000</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1196,8 +1216,8 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1238,8 +1258,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1312,8 +1335,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1337,67 +1363,68 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>61800</v>
+      </c>
+      <c r="E17" s="3">
         <v>78500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>64300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>64000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>49600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>40400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>47200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>41300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>37700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>29900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>28900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>31600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>21000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>26600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>20500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>34600</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
+      <c r="V17" s="3">
+        <v>0</v>
       </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
@@ -1411,8 +1438,11 @@
       <c r="Z17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1420,58 +1450,58 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-78500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-64300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-64000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-49600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-40400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-47200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-41300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-37700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-29900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-28900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-31600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-21000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-26600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-20500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-11000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-34600</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
+      <c r="V18" s="3">
+        <v>0</v>
       </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
@@ -1485,8 +1515,11 @@
       <c r="Z18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1513,8 +1546,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1522,58 +1556,58 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F20" s="3">
         <v>3800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>-100</v>
       </c>
       <c r="L20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-100</v>
       </c>
       <c r="Q20" s="3">
         <v>-100</v>
       </c>
       <c r="R20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
+      <c r="V20" s="3">
+        <v>0</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
@@ -1587,8 +1621,11 @@
       <c r="Z20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1596,47 +1633,47 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-73900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-60400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-62800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-47600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-40000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-47100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-41400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-37700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-30500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-28200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-32100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-20700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-26700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-20600</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1661,8 +1698,11 @@
       <c r="Z21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1687,14 +1727,14 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1702,24 +1742,24 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>400</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1729,73 +1769,76 @@
       <c r="X22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
+      <c r="Y22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-58200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-73900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-60400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-62800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-47700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-40000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-47200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-41400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-37700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-30500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-28200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-32100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-20700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-26700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-20600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-11200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-34500</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
+      <c r="V23" s="3">
+        <v>0</v>
       </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
@@ -1809,29 +1852,32 @@
       <c r="Z23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1842,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-400</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-100</v>
-      </c>
-      <c r="R24" s="3">
-        <v>100</v>
       </c>
       <c r="S24" s="3">
         <v>100</v>
@@ -1865,8 +1911,8 @@
       <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
+      <c r="U24" s="3">
+        <v>100</v>
       </c>
       <c r="V24" s="3" t="s">
         <v>3</v>
@@ -1883,8 +1929,11 @@
       <c r="Z24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1957,67 +2006,70 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-73900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-59400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-63200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-47900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-40400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-47200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-41400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-37700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-30500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-28200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-31800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-20800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-26700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-20600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-11300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-34500</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
+      <c r="V26" s="3">
+        <v>0</v>
       </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
@@ -2031,67 +2083,70 @@
       <c r="Z26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-73900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-59400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-63200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-47900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-40400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-47200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-41400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-37700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-30500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-28200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-31800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-20800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-26700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-20600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-11300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-34500</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
+      <c r="V27" s="3">
+        <v>0</v>
       </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
@@ -2105,8 +2160,11 @@
       <c r="Z27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2179,8 +2237,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2253,8 +2314,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2327,8 +2391,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2401,8 +2468,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2410,58 +2480,58 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>100</v>
       </c>
       <c r="L32" s="3">
+        <v>100</v>
+      </c>
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
-      </c>
-      <c r="P32" s="3">
-        <v>100</v>
       </c>
       <c r="Q32" s="3">
         <v>100</v>
       </c>
       <c r="R32" s="3">
+        <v>100</v>
+      </c>
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
+      <c r="V32" s="3">
+        <v>0</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
@@ -2475,67 +2545,70 @@
       <c r="Z32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-73900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-59400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-63200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-47900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-40400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-47200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-41400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-37700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-30500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-28200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-31800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-20800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-26700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-20600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-11300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-34500</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
+      <c r="V33" s="3">
+        <v>0</v>
       </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
@@ -2549,8 +2622,11 @@
       <c r="Z33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2623,67 +2699,70 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-73900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-59400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-63200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-47900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-40400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-47200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-41400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-37700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-30500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-28200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-31800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-20800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-26700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-20600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-11300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-34500</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
+      <c r="V35" s="3">
+        <v>0</v>
       </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
@@ -2697,73 +2776,76 @@
       <c r="Z35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2776,8 +2858,11 @@
       <c r="Z38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2804,8 +2889,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2832,68 +2918,69 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>269900</v>
+      </c>
+      <c r="E41" s="3">
         <v>330000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>376500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>432600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>405800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>427200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>493800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>527000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>559000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>379000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>400100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>422000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>444400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>280300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>100600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>123500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>100</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2906,8 +2993,11 @@
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2980,58 +3070,61 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>13200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>12900</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>500</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>500</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
         <v>3000</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
+      <c r="S43" s="3">
+        <v>3000</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>3</v>
@@ -3048,14 +3141,17 @@
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y43" s="3">
-        <v>0</v>
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3128,58 +3224,61 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E45" s="3">
         <v>19200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>26900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>21100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5500</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
       <c r="S45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>200</v>
@@ -3187,8 +3286,8 @@
       <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>3</v>
+      <c r="V45" s="3">
+        <v>200</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>3</v>
@@ -3202,68 +3301,71 @@
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>291200</v>
+      </c>
+      <c r="E46" s="3">
         <v>350000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>404300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>454400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>426100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>456300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>512900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>540500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>563800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>384800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>409000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>429400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>450300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>286100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>109100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>126600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>300</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3276,8 +3378,11 @@
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3323,18 +3428,18 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T47" s="3">
         <v>116000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>115300</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3350,58 +3455,61 @@
       <c r="Z47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>900</v>
+      </c>
+      <c r="E48" s="3">
         <v>1200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3500</v>
-      </c>
-      <c r="N48" s="3">
-        <v>3600</v>
       </c>
       <c r="O48" s="3">
         <v>3600</v>
       </c>
       <c r="P48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Q48" s="3">
         <v>4200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>100</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
+      <c r="S48" s="3">
+        <v>0</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
@@ -3418,14 +3526,17 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y48" s="3">
-        <v>0</v>
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3498,8 +3609,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3572,8 +3686,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3646,8 +3763,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3691,13 +3811,13 @@
         <v>0</v>
       </c>
       <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>200</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
+      <c r="S52" s="3">
+        <v>0</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
@@ -3708,8 +3828,8 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
+      <c r="W52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X52" s="3">
         <v>0</v>
@@ -3720,8 +3840,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3794,68 +3917,71 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>292100</v>
+      </c>
+      <c r="E54" s="3">
         <v>351200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>405800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>456200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>428100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>458700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>515600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>543200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>566700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>388000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>412500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>433000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>453900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>290300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>109400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>126600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>117800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>117400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>300</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,8 +3994,11 @@
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3896,8 +4025,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3924,59 +4054,60 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E57" s="3">
         <v>26500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>14000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>18600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2800</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3992,14 +4123,17 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y57" s="3">
-        <v>0</v>
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4055,11 +4189,11 @@
         <v>0</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>300</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4072,67 +4206,70 @@
       <c r="Z58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E59" s="3">
         <v>24900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>41900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>27300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>24300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>20200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>25900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>32500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>24100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>100</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
+      <c r="V59" s="3">
+        <v>0</v>
       </c>
       <c r="W59" s="3" t="s">
         <v>3</v>
@@ -4146,68 +4283,71 @@
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>40300</v>
+      </c>
+      <c r="E60" s="3">
         <v>51400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>43300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>41300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>31800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>21200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>44500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>36400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>28400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>20500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>16500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>19500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>15300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>14800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>300</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4220,8 +4360,11 @@
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4294,8 +4437,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4306,52 +4452,52 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1700</v>
-      </c>
-      <c r="K62" s="3">
-        <v>2000</v>
       </c>
       <c r="L62" s="3">
         <v>2000</v>
       </c>
       <c r="M62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N62" s="3">
         <v>2200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3000</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S62" s="3">
-        <v>4000</v>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T62" s="3">
         <v>4000</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>3</v>
+      <c r="U62" s="3">
+        <v>4000</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>3</v>
@@ -4368,8 +4514,11 @@
       <c r="Z62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4442,8 +4591,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4516,8 +4668,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4590,68 +4745,71 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>40300</v>
+      </c>
+      <c r="E66" s="3">
         <v>51400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>43300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>41600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>32400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>22200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>45700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>38000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>30300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>22500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>21000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>22500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>14800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>300</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4664,8 +4822,11 @@
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4692,8 +4853,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4766,8 +4928,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4840,8 +5005,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4914,8 +5082,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4988,67 +5159,70 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-698900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-640300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-566300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-506900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-443700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-395800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-355400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-308200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-266800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-229100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-198700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-170500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-138700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-117900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-91200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-70700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>200</v>
       </c>
-      <c r="U72" s="3">
-        <v>0</v>
-      </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
+      <c r="V72" s="3">
+        <v>0</v>
       </c>
       <c r="W72" s="3" t="s">
         <v>3</v>
@@ -5062,8 +5236,11 @@
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5136,8 +5313,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5210,8 +5390,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5284,67 +5467,70 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>251800</v>
+      </c>
+      <c r="E76" s="3">
         <v>299900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>362500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>414700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>395700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>436500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>469800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>505100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>536400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>365500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>391500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>414200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>438400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>267800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>94100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>111900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>113400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>113300</v>
       </c>
-      <c r="U76" s="3">
-        <v>0</v>
-      </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
+      <c r="V76" s="3">
+        <v>0</v>
       </c>
       <c r="W76" s="3" t="s">
         <v>3</v>
@@ -5358,8 +5544,11 @@
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5432,73 +5621,76 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5511,67 +5703,70 @@
       <c r="Z80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-73900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-59400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-63200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-47900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-40400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-47200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-41400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-37700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-30500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-28200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-31800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-20800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-26700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-20600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-11300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-34500</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
+      <c r="V81" s="3">
+        <v>0</v>
       </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
@@ -5585,8 +5780,11 @@
       <c r="Z81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5613,8 +5811,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5625,7 +5824,7 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -5660,8 +5859,8 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
@@ -5675,8 +5874,8 @@
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
+      <c r="W83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X83" s="3">
         <v>0</v>
@@ -5687,8 +5886,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5761,8 +5963,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5835,8 +6040,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5909,8 +6117,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5983,8 +6194,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6057,67 +6271,70 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-60100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-47400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-55800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-46400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-20200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-65800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-33000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-31900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-20000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-21200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-22500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-22800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-24200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-23100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-30100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
+      <c r="V89" s="3">
+        <v>0</v>
       </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
@@ -6131,8 +6348,11 @@
       <c r="Z89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6159,8 +6379,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6171,32 +6392,32 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
@@ -6206,8 +6427,8 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
@@ -6221,8 +6442,8 @@
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
@@ -6233,8 +6454,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6307,8 +6531,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6381,8 +6608,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6393,32 +6623,32 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -6429,17 +6659,17 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>115000</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-115000</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
@@ -6449,14 +6679,17 @@
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6483,8 +6716,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6557,8 +6791,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6631,8 +6868,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6705,8 +6945,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6779,23 +7022,26 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>70600</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -6806,41 +7052,41 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>200000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>188400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>193600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>30100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>116800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-200</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6853,32 +7099,35 @@
       <c r="Z100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
@@ -6891,8 +7140,8 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -6927,68 +7176,71 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-46600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-56100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>26800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-21400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-66600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-33200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-31900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>179900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-21100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-21800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-22400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>164100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>179700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-23000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>115000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6999,6 +7251,9 @@
         <v>3</v>
       </c>
       <c r="Z102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
